--- a/notebooks_resultados_actuales/F1_resultados_softmax_2_labels.xlsx
+++ b/notebooks_resultados_actuales/F1_resultados_softmax_2_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/963db75de59c3a5b/TFG/Codigo/Resultados actuales (softmax 2labels) - 13 Junio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2970" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F40599AC-8EC2-4891-9490-69D4A3E59F2E}"/>
+  <xr:revisionPtr revIDLastSave="3013" documentId="8_{6E47643C-8752-4371-9FB2-05DB63CAF240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1132394A-CF50-4662-9A59-DEBE89E551F0}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6C545988-B7BA-434A-928B-BAEB9E714CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bert" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="21">
   <si>
     <t>ABOUT</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Recall</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,7 +454,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,6 +465,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -494,19 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,24 +935,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
@@ -997,7 +1001,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1048,7 +1052,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1107,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1158,7 +1162,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1217,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1272,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1319,7 +1323,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1378,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1429,7 +1433,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1484,7 +1488,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1539,7 +1543,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1586,15 +1590,15 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X19" s="18">
+      <c r="X19" s="17">
         <v>0.499</v>
       </c>
-      <c r="Z19" s="18">
+      <c r="Z19" s="17">
         <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1645,15 +1649,15 @@
         <f>AVERAGE(O20,J20,E20)</f>
         <v>0.68013333333333337</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="17">
         <v>0.68200000000000005</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="17">
         <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1704,15 +1708,15 @@
         <f>AVERAGE(O21,J21,E21)</f>
         <v>0.62913333333333332</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="17">
         <v>0.63400000000000001</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="17">
         <v>0.63</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1763,15 +1767,15 @@
         <f>AVERAGE(O22,J22,E22)</f>
         <v>0.69513333333333327</v>
       </c>
-      <c r="X22" s="18">
+      <c r="X22" s="17">
         <v>0.69899999999999995</v>
       </c>
-      <c r="Z22" s="18">
+      <c r="Z22" s="17">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -1823,15 +1827,15 @@
         <f>AVERAGE(O23,J23,E23)</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="18">
         <v>0.71499999999999997</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="18">
         <v>0.71</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1882,7 +1886,7 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1931,7 +1935,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1980,7 +1984,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -2095,49 +2099,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A9C387-18AF-4EA2-B4B7-6B256C0E1E13}">
-  <dimension ref="B1:Z31"/>
+  <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-    </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="33"/>
+      <c r="X2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
@@ -2176,19 +2172,9 @@
       <c r="R3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2241,13 +2227,9 @@
         <f>AVERAGE(O5,J5,E5)</f>
         <v>0.74436666666666662</v>
       </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2298,13 +2280,9 @@
         <f t="shared" ref="V6:V9" si="2">AVERAGE(O6,J6,E6)</f>
         <v>0.72896666666666665</v>
       </c>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2355,13 +2333,9 @@
         <f t="shared" si="2"/>
         <v>0.72433333333333338</v>
       </c>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2412,13 +2386,9 @@
         <f t="shared" si="2"/>
         <v>0.73010000000000008</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2469,25 +2439,9 @@
         <f t="shared" si="2"/>
         <v>0.72913333333333341</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2540,13 +2494,9 @@
         <f>AVERAGE(O12,J12,E12)</f>
         <v>0.49343333333333333</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2597,13 +2547,9 @@
         <f t="shared" ref="V13:V16" si="4">AVERAGE(O13,J13,E13)</f>
         <v>0.48630000000000001</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2654,13 +2600,9 @@
         <f t="shared" si="4"/>
         <v>0.51936666666666664</v>
       </c>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -2711,13 +2653,9 @@
         <f t="shared" si="4"/>
         <v>0.5218666666666667</v>
       </c>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -2768,25 +2706,9 @@
         <f t="shared" si="4"/>
         <v>0.51086666666666669</v>
       </c>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -2839,13 +2761,11 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>0.43703333333333338</v>
       </c>
-      <c r="W19" s="32"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="34"/>
+      <c r="X19" s="21"/>
+      <c r="Z19" s="21"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2869,7 +2789,7 @@
         <f>AVERAGE(M20:M20)</f>
         <v>0.65169999999999995</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>0.66849999999999998</v>
       </c>
       <c r="M20" s="4">
@@ -2896,13 +2816,11 @@
         <f t="shared" ref="V20:V23" si="7">AVERAGE(O20,J20,E20)</f>
         <v>0.6680666666666667</v>
       </c>
-      <c r="W20" s="32"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="34"/>
+      <c r="X20" s="21"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -2953,13 +2871,11 @@
         <f t="shared" si="7"/>
         <v>0.61620000000000008</v>
       </c>
-      <c r="W21" s="32"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="34"/>
+      <c r="X21" s="21"/>
+      <c r="Z21" s="21"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -3010,13 +2926,11 @@
         <f t="shared" si="7"/>
         <v>0.65143333333333331</v>
       </c>
-      <c r="W22" s="32"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="34"/>
+      <c r="X22" s="21"/>
+      <c r="Z22" s="21"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -3068,25 +2982,11 @@
         <f t="shared" si="7"/>
         <v>0.59126666666666672</v>
       </c>
-      <c r="W23" s="32"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="35"/>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
+      <c r="X23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -3143,13 +3043,9 @@
         <f>AVERAGE(O26,J26,E26)</f>
         <v>0.73129166666666678</v>
       </c>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -3200,13 +3096,9 @@
         <f t="shared" ref="V27:V30" si="10">AVERAGE(O27,J27,E27)</f>
         <v>0.74239999999999995</v>
       </c>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -3257,13 +3149,9 @@
         <f t="shared" si="10"/>
         <v>0.70730000000000004</v>
       </c>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -3314,13 +3202,9 @@
         <f t="shared" si="10"/>
         <v>0.73436666666666672</v>
       </c>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -3371,16 +3255,6 @@
         <f t="shared" si="10"/>
         <v>0.73383333333333323</v>
       </c>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3402,42 +3276,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF7238-AC9A-4DAC-9CB9-21573789F53B}">
   <dimension ref="B2:Z30"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="X19" activeCellId="1" sqref="Z19:Z23 X19:X23"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="O2" s="27" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="O2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="X2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
@@ -3471,7 +3341,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -3518,11 +3388,9 @@
         <f>AVERAGE(O5,J5,E5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3573,11 +3441,9 @@
         <f t="shared" ref="V6:V9" si="1">AVERAGE(O6,J6,E6)</f>
         <v>0.75023333333333342</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3628,11 +3494,9 @@
         <f t="shared" si="1"/>
         <v>0.75316666666666665</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3683,11 +3547,9 @@
         <f t="shared" si="1"/>
         <v>0.75356666666666661</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3738,11 +3600,9 @@
         <f t="shared" si="1"/>
         <v>0.75306666666666666</v>
       </c>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3789,11 +3649,9 @@
         <f>AVERAGE(O12,J12,E12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3844,11 +3702,9 @@
         <f t="shared" ref="V13:V15" si="4">AVERAGE(O13,J13,E13)</f>
         <v>0.5839333333333333</v>
       </c>
-      <c r="X13" s="4"/>
-      <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -3899,11 +3755,9 @@
         <f t="shared" si="4"/>
         <v>0.53826666666666656</v>
       </c>
-      <c r="X14" s="4"/>
-      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -3954,11 +3808,9 @@
         <f t="shared" si="4"/>
         <v>0.40096666666666664</v>
       </c>
-      <c r="X15" s="4"/>
-      <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -4009,11 +3861,9 @@
         <f>AVERAGE(O16,J16,G16)</f>
         <v>0.48606666666666665</v>
       </c>
-      <c r="X16" s="4"/>
-      <c r="Z16" s="4"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -4060,15 +3910,11 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X19" s="19">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="Z19" s="19">
-        <v>0.33100000000000002</v>
-      </c>
+      <c r="X19" s="22"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -4119,15 +3965,11 @@
         <f t="shared" ref="V20:V23" si="7">AVERAGE(O20,J20,E20)</f>
         <v>0.71499999999999997</v>
       </c>
-      <c r="X20" s="19">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="Z20" s="19">
-        <v>0.71599999999999997</v>
-      </c>
+      <c r="X20" s="22"/>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -4178,15 +4020,11 @@
         <f t="shared" si="7"/>
         <v>0.71173333333333322</v>
       </c>
-      <c r="X21" s="19">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="Z21" s="19">
-        <v>0.71299999999999997</v>
-      </c>
+      <c r="X21" s="22"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -4237,15 +4075,11 @@
         <f t="shared" si="7"/>
         <v>0.7359</v>
       </c>
-      <c r="X22" s="19">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="Z22" s="19">
-        <v>0.73499999999999999</v>
-      </c>
+      <c r="X22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -4297,15 +4131,11 @@
         <f t="shared" si="7"/>
         <v>0.71726666666666672</v>
       </c>
-      <c r="X23" s="19">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="Z23" s="19">
-        <v>0.71699999999999997</v>
-      </c>
+      <c r="X23" s="22"/>
+      <c r="Z23" s="22"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -4352,11 +4182,9 @@
         <f>AVERAGE(O26,J26,E26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X26" s="4"/>
-      <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -4401,11 +4229,9 @@
         <f t="shared" ref="V27:V30" si="10">AVERAGE(O27,J27,E27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X27" s="4"/>
-      <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -4450,11 +4276,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X28" s="4"/>
-      <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -4487,11 +4311,9 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X29" s="4"/>
-      <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4524,8 +4346,6 @@
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="4"/>
-      <c r="Z30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4553,24 +4373,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4623,7 +4443,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4680,7 +4500,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4555,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -4790,7 +4610,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4845,7 +4665,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4900,7 +4720,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4957,7 +4777,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -5012,7 +4832,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5067,7 +4887,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -5122,7 +4942,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -5177,7 +4997,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5230,15 +5050,15 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>0.40599999999999997</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>0.50800000000000001</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="18">
         <v>0.499</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -5289,15 +5109,15 @@
         <f>AVERAGE(O20,J20,E20)</f>
         <v>0.47423333333333328</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>0.49</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="18">
         <v>0.497</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -5348,15 +5168,15 @@
         <f>AVERAGE(O21,J21,E21)</f>
         <v>0.49546666666666672</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="18">
         <v>0.51300000000000001</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="Z21" s="18">
         <v>0.51</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -5407,15 +5227,15 @@
         <f>AVERAGE(O22,J22,E22)</f>
         <v>0.46156666666666668</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="18">
         <v>0.49</v>
       </c>
-      <c r="Z22" s="19">
+      <c r="Z22" s="18">
         <v>0.502</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -5467,15 +5287,15 @@
         <f>AVERAGE(O23,J23,E23)</f>
         <v>0.45333333333333331</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="18">
         <v>0.5</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="18">
         <v>0.496</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -5532,7 +5352,7 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -5581,7 +5401,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -5630,7 +5450,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -5679,7 +5499,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5754,24 +5574,24 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="J2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="O2" s="27" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="O2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5824,7 +5644,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -5875,7 +5695,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5750,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
@@ -5985,7 +5805,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4" t="s">
         <v>10</v>
       </c>
@@ -6040,7 +5860,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="20"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
@@ -6095,7 +5915,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -6146,7 +5966,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
@@ -6201,7 +6021,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
@@ -6256,7 +6076,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
@@ -6311,7 +6131,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
         <v>11</v>
       </c>
@@ -6366,7 +6186,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -6413,15 +6233,15 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>0.5</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="4" t="s">
         <v>8</v>
       </c>
@@ -6472,15 +6292,15 @@
         <f t="shared" ref="V20:V23" si="6">AVERAGE(O20,J20,E20)</f>
         <v>0.4645333333333333</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>0.501</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="18">
         <v>0.502</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
@@ -6531,15 +6351,15 @@
         <f t="shared" si="6"/>
         <v>0.44510000000000005</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="18">
         <v>0.48399999999999999</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="Z21" s="18">
         <v>0.495</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="4" t="s">
         <v>10</v>
       </c>
@@ -6590,15 +6410,15 @@
         <f t="shared" si="6"/>
         <v>0.44096666666666667</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="18">
         <v>0.50700000000000001</v>
       </c>
-      <c r="Z22" s="19">
+      <c r="Z22" s="18">
         <v>0.504</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
@@ -6650,15 +6470,15 @@
         <f t="shared" si="6"/>
         <v>0.46720000000000006</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="18">
         <v>0.504</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="18">
         <v>0.503</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -6709,8 +6529,8 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="4"/>
@@ -6729,10 +6549,10 @@
         <f>AVERAGE(L27:M27)</f>
         <v>0.58325000000000005</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>0.63019999999999998</v>
       </c>
-      <c r="M27" s="13">
+      <c r="M27" s="12">
         <v>0.5363</v>
       </c>
       <c r="O27" s="3"/>
@@ -6758,7 +6578,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
@@ -6778,10 +6598,10 @@
         <f>AVERAGE(L28:M28)</f>
         <v>0.59475</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <v>0.64180000000000004</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M28" s="16">
         <v>0.54769999999999996</v>
       </c>
       <c r="O28" s="3"/>
@@ -6807,7 +6627,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="4" t="s">
         <v>10</v>
       </c>
@@ -6827,10 +6647,10 @@
         <f>AVERAGE(L29:M29)</f>
         <v>0.60775000000000001</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>0.65249999999999997</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="16">
         <v>0.56299999999999994</v>
       </c>
       <c r="O29" s="3"/>
@@ -6856,7 +6676,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="4" t="s">
         <v>11</v>
       </c>
@@ -6876,10 +6696,10 @@
         <f>AVERAGE(L30:M30)</f>
         <v>0.58360000000000001</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>0.64480000000000004</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>0.52239999999999998</v>
       </c>
       <c r="O30" s="3"/>
@@ -6905,51 +6725,51 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="29"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="29"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="29"/>
-      <c r="U74" s="29"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="30"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="32"/>
+      <c r="U74" s="32"/>
+      <c r="V74" s="32"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="33"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F78" s="26" t="s">
+      <c r="F78" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="K78" s="26" t="s">
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="K78" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="P78" s="27" t="s">
+      <c r="L78" s="29"/>
+      <c r="M78" s="29"/>
+      <c r="P78" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q78" s="27"/>
-      <c r="R78" s="27"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
       <c r="T78" s="1" t="s">
         <v>3</v>
       </c>
@@ -6984,7 +6804,7 @@
       </c>
     </row>
     <row r="81" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -7015,7 +6835,7 @@
       </c>
     </row>
     <row r="82" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C82" s="26"/>
+      <c r="C82" s="29"/>
       <c r="D82" s="3" t="s">
         <v>8</v>
       </c>
@@ -7059,7 +6879,7 @@
       </c>
     </row>
     <row r="83" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C83" s="26"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="3" t="s">
         <v>9</v>
       </c>
@@ -7103,7 +6923,7 @@
       </c>
     </row>
     <row r="84" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C84" s="26"/>
+      <c r="C84" s="29"/>
       <c r="D84" s="3" t="s">
         <v>10</v>
       </c>
@@ -7132,7 +6952,7 @@
       </c>
     </row>
     <row r="85" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C85" s="26"/>
+      <c r="C85" s="29"/>
       <c r="D85" s="3" t="s">
         <v>11</v>
       </c>
@@ -7161,7 +6981,7 @@
       </c>
     </row>
     <row r="88" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -7192,7 +7012,7 @@
       </c>
     </row>
     <row r="89" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C89" s="26"/>
+      <c r="C89" s="29"/>
       <c r="D89" s="3" t="s">
         <v>8</v>
       </c>
@@ -7236,7 +7056,7 @@
       </c>
     </row>
     <row r="90" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
+      <c r="C90" s="29"/>
       <c r="D90" s="3" t="s">
         <v>9</v>
       </c>
@@ -7280,7 +7100,7 @@
       </c>
     </row>
     <row r="91" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C91" s="26"/>
+      <c r="C91" s="29"/>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
@@ -7309,7 +7129,7 @@
       </c>
     </row>
     <row r="92" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C92" s="26"/>
+      <c r="C92" s="29"/>
       <c r="D92" s="3" t="s">
         <v>11</v>
       </c>
@@ -7338,7 +7158,7 @@
       </c>
     </row>
     <row r="95" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -7369,7 +7189,7 @@
       </c>
     </row>
     <row r="96" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C96" s="26"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="3" t="s">
         <v>8</v>
       </c>
@@ -7413,7 +7233,7 @@
       </c>
     </row>
     <row r="97" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C97" s="26"/>
+      <c r="C97" s="29"/>
       <c r="D97" s="3" t="s">
         <v>9</v>
       </c>
@@ -7457,7 +7277,7 @@
       </c>
     </row>
     <row r="98" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C98" s="26"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="3" t="s">
         <v>10</v>
       </c>
@@ -7486,7 +7306,7 @@
       </c>
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C99" s="26"/>
+      <c r="C99" s="29"/>
       <c r="D99" s="3" t="s">
         <v>11</v>
       </c>
@@ -7516,7 +7336,7 @@
       </c>
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -7547,7 +7367,7 @@
       </c>
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C103" s="26"/>
+      <c r="C103" s="29"/>
       <c r="D103" s="3" t="s">
         <v>8</v>
       </c>
@@ -7576,7 +7396,7 @@
       </c>
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C104" s="26"/>
+      <c r="C104" s="29"/>
       <c r="D104" s="3" t="s">
         <v>9</v>
       </c>
@@ -7605,7 +7425,7 @@
       </c>
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C105" s="26"/>
+      <c r="C105" s="29"/>
       <c r="D105" s="3" t="s">
         <v>10</v>
       </c>
@@ -7634,7 +7454,7 @@
       </c>
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C106" s="26"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="3" t="s">
         <v>11</v>
       </c>
@@ -7663,21 +7483,21 @@
       </c>
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F112" s="26" t="s">
+      <c r="F112" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="K112" s="26" t="s">
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="K112" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L112" s="26"/>
-      <c r="M112" s="26"/>
-      <c r="P112" s="27" t="s">
+      <c r="L112" s="29"/>
+      <c r="M112" s="29"/>
+      <c r="P112" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q112" s="27"/>
-      <c r="R112" s="27"/>
+      <c r="Q112" s="30"/>
+      <c r="R112" s="30"/>
       <c r="T112" s="1" t="s">
         <v>3</v>
       </c>
@@ -7712,7 +7532,7 @@
       </c>
     </row>
     <row r="115" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -7755,7 +7575,7 @@
       </c>
     </row>
     <row r="116" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C116" s="26"/>
+      <c r="C116" s="29"/>
       <c r="D116" s="3" t="s">
         <v>8</v>
       </c>
@@ -7796,7 +7616,7 @@
       </c>
     </row>
     <row r="117" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C117" s="26"/>
+      <c r="C117" s="29"/>
       <c r="D117" s="3" t="s">
         <v>9</v>
       </c>
@@ -7838,7 +7658,7 @@
       </c>
     </row>
     <row r="118" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C118" s="26"/>
+      <c r="C118" s="29"/>
       <c r="D118" s="3" t="s">
         <v>10</v>
       </c>
@@ -7879,7 +7699,7 @@
       </c>
     </row>
     <row r="119" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C119" s="26"/>
+      <c r="C119" s="29"/>
       <c r="D119" s="3" t="s">
         <v>11</v>
       </c>
@@ -7920,7 +7740,7 @@
       </c>
     </row>
     <row r="122" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -7963,7 +7783,7 @@
       </c>
     </row>
     <row r="123" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C123" s="26"/>
+      <c r="C123" s="29"/>
       <c r="D123" s="3" t="s">
         <v>8</v>
       </c>
@@ -8004,7 +7824,7 @@
       </c>
     </row>
     <row r="124" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C124" s="26"/>
+      <c r="C124" s="29"/>
       <c r="D124" s="3" t="s">
         <v>9</v>
       </c>
@@ -8045,7 +7865,7 @@
       </c>
     </row>
     <row r="125" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C125" s="26"/>
+      <c r="C125" s="29"/>
       <c r="D125" s="3" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +7906,7 @@
       </c>
     </row>
     <row r="126" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C126" s="26"/>
+      <c r="C126" s="29"/>
       <c r="D126" s="3" t="s">
         <v>11</v>
       </c>
@@ -8127,7 +7947,7 @@
       </c>
     </row>
     <row r="129" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -8170,7 +7990,7 @@
       </c>
     </row>
     <row r="130" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C130" s="26"/>
+      <c r="C130" s="29"/>
       <c r="D130" s="3" t="s">
         <v>8</v>
       </c>
@@ -8211,7 +8031,7 @@
       </c>
     </row>
     <row r="131" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C131" s="26"/>
+      <c r="C131" s="29"/>
       <c r="D131" s="3" t="s">
         <v>9</v>
       </c>
@@ -8252,7 +8072,7 @@
       </c>
     </row>
     <row r="132" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C132" s="26"/>
+      <c r="C132" s="29"/>
       <c r="D132" s="3" t="s">
         <v>10</v>
       </c>
@@ -8293,7 +8113,7 @@
       </c>
     </row>
     <row r="133" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C133" s="26"/>
+      <c r="C133" s="29"/>
       <c r="D133" s="3" t="s">
         <v>11</v>
       </c>
@@ -8335,7 +8155,7 @@
       </c>
     </row>
     <row r="136" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -8366,7 +8186,7 @@
       </c>
     </row>
     <row r="137" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C137" s="26"/>
+      <c r="C137" s="29"/>
       <c r="D137" s="3" t="s">
         <v>8</v>
       </c>
@@ -8395,7 +8215,7 @@
       </c>
     </row>
     <row r="138" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C138" s="26"/>
+      <c r="C138" s="29"/>
       <c r="D138" s="3" t="s">
         <v>9</v>
       </c>
@@ -8424,7 +8244,7 @@
       </c>
     </row>
     <row r="139" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C139" s="26"/>
+      <c r="C139" s="29"/>
       <c r="D139" s="3" t="s">
         <v>10</v>
       </c>
@@ -8453,7 +8273,7 @@
       </c>
     </row>
     <row r="140" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C140" s="26"/>
+      <c r="C140" s="29"/>
       <c r="D140" s="3" t="s">
         <v>11</v>
       </c>
@@ -8483,12 +8303,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="A74:Z74"/>
     <mergeCell ref="C136:C140"/>
@@ -8505,6 +8319,12 @@
     <mergeCell ref="P78:R78"/>
     <mergeCell ref="C81:C85"/>
     <mergeCell ref="C88:C92"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8514,1043 +8334,914 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0273683D-9349-47F5-A914-A6E49DBBA2D4}">
-  <dimension ref="B2:Z30"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB32" sqref="AB32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
-      <c r="T2" s="1" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="M2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="Q2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E3" s="4" t="s">
-        <v>14</v>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.80295000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="G4">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="N4">
+        <v>0.7056</v>
+      </c>
+      <c r="O4">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="Q4">
+        <v>0.71771666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
-        <v>0.80269999999999997</v>
+      <c r="E5" s="4">
+        <f>AVERAGE(F5:G5)</f>
+        <v>0.80600000000000005</v>
       </c>
       <c r="F5" s="4">
-        <f>AVERAGE(G5:H5)</f>
-        <v>0.80295000000000005</v>
+        <v>0.8165</v>
       </c>
       <c r="G5" s="4">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="I5" s="4">
+        <f>AVERAGE(J5:K5)</f>
+        <v>0.67064999999999997</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.70269999999999999</v>
+      </c>
       <c r="K5" s="4">
-        <f>AVERAGE(L5:M5)</f>
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.70379999999999998</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.64119999999999999</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="8">
-        <f>AVERAGE(Q5:R5)</f>
-        <v>0.67769999999999997</v>
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="M5" s="8">
+        <f>AVERAGE(N5:O5)</f>
+        <v>0.67785000000000006</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.65300000000000002</v>
       </c>
       <c r="Q5" s="4">
-        <v>0.7056</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.64980000000000004</v>
-      </c>
-      <c r="T5" s="4">
-        <f>AVERAGE(F5,K5,P5)</f>
-        <v>0.71771666666666667</v>
-      </c>
-      <c r="V5" s="4">
-        <f>AVERAGE(O5,J5,E5)</f>
-        <v>0.80269999999999997</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+        <f>AVERAGE(E5,I5,M5)</f>
+        <v>0.71816666666666673</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4">
+        <f>AVERAGE(F6:G6)</f>
+        <v>0.80545</v>
+      </c>
       <c r="F6" s="4">
-        <f>AVERAGE(G6:H6)</f>
-        <v>0.80545</v>
+        <v>0.81720000000000004</v>
       </c>
       <c r="G6" s="4">
-        <v>0.81720000000000004</v>
-      </c>
-      <c r="H6" s="4">
         <v>0.79369999999999996</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="I6" s="4">
+        <f>AVERAGE(J6:K6)</f>
+        <v>0.6611499999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.69889999999999997</v>
+      </c>
       <c r="K6" s="4">
-        <f>AVERAGE(L6:M6)</f>
-        <v>0.6611499999999999</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0.69889999999999997</v>
-      </c>
-      <c r="M6" s="4">
         <v>0.62339999999999995</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="8">
-        <f>AVERAGE(Q6:R6)</f>
+      <c r="M6" s="8">
+        <f>AVERAGE(N6:O6)</f>
         <v>0.66264999999999996</v>
       </c>
+      <c r="N6" s="4">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.62790000000000001</v>
+      </c>
       <c r="Q6" s="4">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0.62790000000000001</v>
-      </c>
-      <c r="T6" s="4">
-        <f>AVERAGE(F6,K6,P6)</f>
+        <f>AVERAGE(E6,I6,M6)</f>
         <v>0.70974999999999999</v>
       </c>
-      <c r="V6" s="4" t="e">
-        <f t="shared" ref="V6:V9" si="0">AVERAGE(O6,J6,E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="4">
+        <f>AVERAGE(F7:G7)</f>
+        <v>0.80530000000000002</v>
+      </c>
       <c r="F7" s="4">
-        <f>AVERAGE(G7:H7)</f>
-        <v>0.80530000000000002</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="G7" s="4">
-        <v>0.81769999999999998</v>
-      </c>
-      <c r="H7" s="4">
         <v>0.79290000000000005</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="I7" s="4">
+        <f>AVERAGE(J7:K7)</f>
+        <v>0.66189999999999993</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.69989999999999997</v>
+      </c>
       <c r="K7" s="4">
-        <f>AVERAGE(L7:M7)</f>
-        <v>0.66189999999999993</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0.69989999999999997</v>
-      </c>
-      <c r="M7" s="4">
         <v>0.62390000000000001</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="8">
-        <f>AVERAGE(Q7:R7)</f>
+      <c r="M7" s="8">
+        <f>AVERAGE(N7:O7)</f>
         <v>0.66379999999999995</v>
       </c>
+      <c r="N7" s="4">
+        <v>0.69940000000000002</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="P7" s="5"/>
       <c r="Q7" s="4">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="R7" s="4">
-        <v>0.62819999999999998</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="4">
-        <f>AVERAGE(F7,K7,P7)</f>
+        <f>AVERAGE(E7,I7,M7)</f>
         <v>0.71033333333333337</v>
       </c>
-      <c r="V7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4">
+        <f>AVERAGE(F8:G8)</f>
+        <v>0.80310000000000004</v>
+      </c>
       <c r="F8" s="4">
-        <f>AVERAGE(G8:H8)</f>
-        <v>0.80310000000000004</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="G8" s="4">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="H8" s="4">
         <v>0.79010000000000002</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="I8" s="4">
+        <f>AVERAGE(J8:K8)</f>
+        <v>0.66050000000000009</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.69940000000000002</v>
+      </c>
       <c r="K8" s="4">
-        <f>AVERAGE(L8:M8)</f>
-        <v>0.66050000000000009</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0.69940000000000002</v>
-      </c>
-      <c r="M8" s="4">
         <v>0.62160000000000004</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="8">
-        <f>AVERAGE(Q8:R8)</f>
+      <c r="M8" s="8">
+        <f>AVERAGE(N8:O8)</f>
         <v>0.66284999999999994</v>
       </c>
+      <c r="N8" s="4">
+        <v>0.6986</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0.62709999999999999</v>
+      </c>
       <c r="Q8" s="4">
-        <v>0.6986</v>
-      </c>
-      <c r="R8" s="4">
-        <v>0.62709999999999999</v>
-      </c>
-      <c r="T8" s="4">
-        <f>AVERAGE(F8,K8,P8)</f>
+        <f>AVERAGE(E8,I8,M8)</f>
         <v>0.70881666666666676</v>
       </c>
-      <c r="V8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="4">
+        <f>AVERAGE(F9:G9)</f>
+        <v>0.81179999999999997</v>
+      </c>
       <c r="F9" s="4">
-        <f>AVERAGE(G9:H9)</f>
-        <v>0.81179999999999997</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="G9" s="4">
-        <v>0.82289999999999996</v>
-      </c>
-      <c r="H9" s="4">
         <v>0.80069999999999997</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4">
+        <f>AVERAGE(J9:K9)</f>
+        <v>0.65844999999999998</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.69740000000000002</v>
+      </c>
       <c r="K9" s="4">
-        <f>AVERAGE(L9:M9)</f>
-        <v>0.65844999999999998</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0.69740000000000002</v>
-      </c>
-      <c r="M9" s="4">
         <v>0.61950000000000005</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="8">
-        <f>AVERAGE(Q9:R9)</f>
+      <c r="M9" s="8">
+        <f>AVERAGE(N9:O9)</f>
         <v>0.66165000000000007</v>
       </c>
+      <c r="N9" s="4">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0.62619999999999998</v>
+      </c>
       <c r="Q9" s="4">
-        <v>0.69710000000000005</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0.62619999999999998</v>
-      </c>
-      <c r="T9" s="4">
-        <f>AVERAGE(F9,K9,P9)</f>
+        <f>AVERAGE(E9,I9,M9)</f>
         <v>0.71063333333333334</v>
       </c>
-      <c r="V9" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="4"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0.45165</v>
+      </c>
+      <c r="F11">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="G11">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.45495000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.29930000000000001</v>
+      </c>
+      <c r="K11">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="M11">
+        <v>0.43955</v>
+      </c>
+      <c r="N11">
+        <v>0.28260000000000002</v>
+      </c>
+      <c r="O11">
+        <v>0.59650000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.44871666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4">
+        <f>AVERAGE(F12:G12)</f>
+        <v>0.48809999999999998</v>
+      </c>
       <c r="F12" s="4">
-        <f>AVERAGE(G12:H12)</f>
-        <v>0.45165</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="G12" s="4">
-        <v>0.26790000000000003</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.63539999999999996</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="8">
-        <f>AVERAGE(L12:M12)</f>
-        <v>0.45495000000000002</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.29930000000000001</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0.61060000000000003</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="8">
-        <f>AVERAGE(Q12:R12)</f>
-        <v>0.43955</v>
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="I12" s="8">
+        <f>AVERAGE(J12:K12)</f>
+        <v>0.57139999999999991</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="M12" s="8">
+        <f>AVERAGE(N12:O12)</f>
+        <v>0.38014999999999999</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.39889999999999998</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.3614</v>
       </c>
       <c r="Q12" s="4">
-        <v>0.28260000000000002</v>
-      </c>
-      <c r="R12" s="4">
-        <v>0.59650000000000003</v>
-      </c>
-      <c r="T12" s="4">
-        <f>AVERAGE(F12,K12,P12)</f>
-        <v>0.44871666666666671</v>
-      </c>
-      <c r="V12" s="4" t="e">
-        <f>AVERAGE(O12,J12,E12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+        <f>AVERAGE(E12,I12,M12)</f>
+        <v>0.47988333333333327</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="4">
+        <f>AVERAGE(F13:G13)</f>
+        <v>0.47299999999999998</v>
+      </c>
       <c r="F13" s="4">
-        <f>AVERAGE(G13:H13)</f>
-        <v>0.47299999999999998</v>
+        <v>0.32929999999999998</v>
       </c>
       <c r="G13" s="4">
-        <v>0.32929999999999998</v>
-      </c>
-      <c r="H13" s="4">
         <v>0.61670000000000003</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="8">
-        <f>AVERAGE(L13:M13)</f>
+      <c r="I13" s="8">
+        <f>AVERAGE(J13:K13)</f>
         <v>0.48150000000000004</v>
       </c>
-      <c r="L13" s="4">
+      <c r="J13" s="4">
         <v>0.36820000000000003</v>
       </c>
-      <c r="M13" s="4">
+      <c r="K13" s="4">
         <v>0.5948</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="8">
-        <f>AVERAGE(Q13:R13)</f>
+      <c r="M13" s="8">
+        <f>AVERAGE(N13:O13)</f>
         <v>0.45040000000000002</v>
       </c>
+      <c r="N13" s="4">
+        <v>0.33929999999999999</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.5615</v>
+      </c>
       <c r="Q13" s="4">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0.5615</v>
-      </c>
-      <c r="T13" s="4">
-        <f>AVERAGE(F13,K13,P13)</f>
+        <f>AVERAGE(E13,I13,M13)</f>
         <v>0.46829999999999999</v>
       </c>
-      <c r="V13" s="4" t="e">
-        <f t="shared" ref="V13:V16" si="1">AVERAGE(O13,J13,E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="4">
+        <f>AVERAGE(F14:G14)</f>
+        <v>0.42954999999999999</v>
+      </c>
       <c r="F14" s="4">
-        <f>AVERAGE(G14:H14)</f>
-        <v>0.42954999999999999</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="G14" s="4">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="H14" s="4">
         <v>0.63619999999999999</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="8">
-        <f>AVERAGE(L14:M14)</f>
+      <c r="I14" s="8">
+        <f>AVERAGE(J14:K14)</f>
         <v>0.43133500000000002</v>
       </c>
-      <c r="L14" s="4">
+      <c r="J14" s="4">
         <v>0.24907000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="K14" s="4">
         <v>0.61360000000000003</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="8">
-        <f>AVERAGE(Q14:R14)</f>
+      <c r="M14" s="8">
+        <f>AVERAGE(N14:O14)</f>
         <v>0.43080000000000002</v>
       </c>
+      <c r="N14" s="4">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0.63270000000000004</v>
+      </c>
       <c r="Q14" s="4">
-        <v>0.22889999999999999</v>
-      </c>
-      <c r="R14" s="4">
-        <v>0.63270000000000004</v>
-      </c>
-      <c r="T14" s="4">
-        <f>AVERAGE(F14,K14,P14)</f>
+        <f>AVERAGE(E14,I14,M14)</f>
         <v>0.43056166666666668</v>
       </c>
-      <c r="V14" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="4">
+        <f>AVERAGE(F15:G15)</f>
+        <v>0.48975000000000002</v>
+      </c>
       <c r="F15" s="4">
-        <f>AVERAGE(G15:H15)</f>
-        <v>0.48975000000000002</v>
+        <v>0.38969999999999999</v>
       </c>
       <c r="G15" s="4">
-        <v>0.38969999999999999</v>
-      </c>
-      <c r="H15" s="4">
         <v>0.58979999999999999</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="8">
-        <f>AVERAGE(L15:M15)</f>
+      <c r="I15" s="8">
+        <f>AVERAGE(J15:K15)</f>
         <v>0.5696</v>
       </c>
-      <c r="L15" s="4">
+      <c r="J15" s="4">
         <v>0.53090000000000004</v>
       </c>
-      <c r="M15" s="4">
+      <c r="K15" s="4">
         <v>0.60829999999999995</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="8">
-        <f>AVERAGE(Q15:R15)</f>
+      <c r="M15" s="8">
+        <f>AVERAGE(N15:O15)</f>
         <v>0.49754999999999999</v>
       </c>
+      <c r="N15" s="4">
+        <v>0.4214</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0.57369999999999999</v>
+      </c>
       <c r="Q15" s="4">
-        <v>0.4214</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0.57369999999999999</v>
-      </c>
-      <c r="T15" s="4">
-        <f>AVERAGE(F15,K15,P15)</f>
+        <f>AVERAGE(E15,I15,M15)</f>
         <v>0.51896666666666669</v>
       </c>
-      <c r="V15" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" s="4"/>
-      <c r="Z15" s="4"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="4">
+        <f>AVERAGE(F16:G16)</f>
+        <v>0.4214</v>
+      </c>
       <c r="F16" s="4">
-        <f>AVERAGE(G16:H16)</f>
-        <v>0.4214</v>
+        <v>0.2104</v>
       </c>
       <c r="G16" s="4">
-        <v>0.2104</v>
-      </c>
-      <c r="H16" s="4">
         <v>0.63239999999999996</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="8">
-        <f>AVERAGE(L16:M16)</f>
+      <c r="I16" s="8">
+        <f>AVERAGE(J16:K16)</f>
         <v>0.47289999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="J16" s="4">
         <v>0.31340000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="K16" s="4">
         <v>0.63239999999999996</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="8">
-        <f>AVERAGE(Q16:R16)</f>
+      <c r="M16" s="8">
+        <f>AVERAGE(N16:O16)</f>
         <v>0.4284</v>
       </c>
+      <c r="N16" s="4">
+        <v>0.2271</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.62970000000000004</v>
+      </c>
       <c r="Q16" s="4">
-        <v>0.2271</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0.62970000000000004</v>
-      </c>
-      <c r="T16" s="4">
-        <f>AVERAGE(F16,K16,P16)</f>
+        <f>AVERAGE(E16,I16,M16)</f>
         <v>0.44090000000000001</v>
       </c>
-      <c r="V16" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X16" s="4"/>
-      <c r="Z16" s="4"/>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>0.48214999999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.46789999999999998</v>
+      </c>
+      <c r="I18">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="J18">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="K18">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="M18">
+        <v>0.61955000000000005</v>
+      </c>
+      <c r="N18">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="O18">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="Q18">
+        <v>0.56123333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="4">
+        <f>AVERAGE(F19:G19)</f>
+        <v>0.47210000000000002</v>
+      </c>
       <c r="F19" s="4">
-        <f>AVERAGE(G19:H19)</f>
-        <v>0.48214999999999997</v>
+        <v>0.48020000000000002</v>
       </c>
       <c r="G19" s="4">
-        <v>0.49640000000000001</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.46789999999999998</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="8">
-        <f>AVERAGE(L19:M19)</f>
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="M19" s="13">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="8">
-        <f>AVERAGE(Q19:R19)</f>
-        <v>0.61955000000000005</v>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="I19" s="8">
+        <f>AVERAGE(J19:K19)</f>
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.51090000000000002</v>
+      </c>
+      <c r="M19" s="8">
+        <f>AVERAGE(O19:O19)</f>
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.61209999999999998</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.58079999999999998</v>
       </c>
       <c r="Q19" s="4">
-        <v>0.62670000000000003</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="T19" s="4">
-        <f>AVERAGE(F19,K19,P19)</f>
-        <v>0.56123333333333336</v>
-      </c>
-      <c r="V19" s="4">
-        <f>AVERAGE(O19,L19,E19)</f>
-        <v>0.63329999999999997</v>
-      </c>
-      <c r="X19" s="19">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="Z19" s="19">
-        <v>0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+        <f>AVERAGE(E19,I19,M19)</f>
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="4">
+        <f>AVERAGE(F20:G20)</f>
+        <v>0.47099999999999997</v>
+      </c>
       <c r="F20" s="4">
-        <f>AVERAGE(G20:H20)</f>
-        <v>0.47099999999999997</v>
+        <v>0.48630000000000001</v>
       </c>
       <c r="G20" s="4">
-        <v>0.48630000000000001</v>
-      </c>
-      <c r="H20" s="4">
         <v>0.45569999999999999</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="8">
-        <f>AVERAGE(L20:M20)</f>
+      <c r="I20" s="8">
+        <f>AVERAGE(J20:K20)</f>
         <v>0.59129999999999994</v>
       </c>
-      <c r="L20" s="4">
+      <c r="J20" s="4">
         <v>0.65259999999999996</v>
       </c>
-      <c r="M20" s="4">
+      <c r="K20" s="4">
         <v>0.53</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="8">
-        <f>AVERAGE(Q20:R20)</f>
+      <c r="M20" s="8">
+        <f>AVERAGE(N20:O20)</f>
         <v>0.61419999999999997</v>
       </c>
+      <c r="N20" s="4">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.59789999999999999</v>
+      </c>
       <c r="Q20" s="4">
-        <v>0.63049999999999995</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0.59789999999999999</v>
-      </c>
-      <c r="T20" s="4">
-        <f>AVERAGE(F20,K20,P20)</f>
+        <f>AVERAGE(E20,I20,M20)</f>
         <v>0.55883333333333329</v>
       </c>
-      <c r="V20" s="4" t="e">
-        <f t="shared" ref="V20:V23" si="2">AVERAGE(O20,J20,E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X20" s="19">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="Z20" s="19">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="4">
+        <f>AVERAGE(F21:G21)</f>
+        <v>0.47575000000000001</v>
+      </c>
       <c r="F21" s="4">
-        <f>AVERAGE(G21:H21)</f>
-        <v>0.47575000000000001</v>
+        <v>0.47989999999999999</v>
       </c>
       <c r="G21" s="4">
-        <v>0.47989999999999999</v>
-      </c>
-      <c r="H21" s="4">
         <v>0.47160000000000002</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="8">
-        <f>AVERAGE(L21:M21)</f>
+      <c r="I21" s="8">
+        <f>AVERAGE(J21:K21)</f>
         <v>0.61</v>
       </c>
-      <c r="L21" s="4">
+      <c r="J21" s="4">
         <v>0.63890000000000002</v>
       </c>
-      <c r="M21" s="4">
+      <c r="K21" s="4">
         <v>0.58109999999999995</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="8">
-        <f>AVERAGE(Q21:R21)</f>
+      <c r="M21" s="8">
+        <f>AVERAGE(N21:O21)</f>
         <v>0.60634999999999994</v>
       </c>
+      <c r="N21" s="4">
+        <v>0.6018</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.6109</v>
+      </c>
       <c r="Q21" s="4">
-        <v>0.6018</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0.6109</v>
-      </c>
-      <c r="T21" s="4">
-        <f>AVERAGE(F21,K21,P21)</f>
+        <f>AVERAGE(E21,I21,M21)</f>
         <v>0.56403333333333328</v>
       </c>
-      <c r="V21" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X21" s="19">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="Z21" s="19">
-        <v>0.56599999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="4">
+        <f>AVERAGE(F22:G22)</f>
+        <v>0.47354999999999997</v>
+      </c>
       <c r="F22" s="4">
-        <f>AVERAGE(G22:H22)</f>
-        <v>0.47354999999999997</v>
+        <v>0.43959999999999999</v>
       </c>
       <c r="G22" s="4">
-        <v>0.43959999999999999</v>
-      </c>
-      <c r="H22" s="4">
         <v>0.50749999999999995</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="8">
-        <f>AVERAGE(L22:M22)</f>
+      <c r="I22" s="8">
+        <f>AVERAGE(J22:K22)</f>
         <v>0.59539999999999993</v>
       </c>
-      <c r="L22" s="4">
+      <c r="J22" s="4">
         <v>0.61109999999999998</v>
       </c>
-      <c r="M22" s="4">
+      <c r="K22" s="4">
         <v>0.57969999999999999</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="8">
-        <f>AVERAGE(Q22:R22)</f>
+      <c r="M22" s="8">
+        <f>AVERAGE(N22:O22)</f>
         <v>0.60609999999999997</v>
       </c>
+      <c r="N22" s="4">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="P22" s="5"/>
       <c r="Q22" s="4">
-        <v>0.57769999999999999</v>
-      </c>
-      <c r="R22" s="4">
-        <v>0.63449999999999995</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="4">
-        <f>AVERAGE(F22,K22,P22)</f>
+        <f>AVERAGE(E22,I22,M22)</f>
         <v>0.5583499999999999</v>
       </c>
-      <c r="V22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X22" s="19">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="Z22" s="19">
-        <v>0.56100000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="4">
+        <f>AVERAGE(F23:G23)</f>
+        <v>0.4768</v>
+      </c>
       <c r="F23" s="4">
-        <f>AVERAGE(G23:H23)</f>
-        <v>0.4768</v>
+        <v>0.50270000000000004</v>
       </c>
       <c r="G23" s="4">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="H23" s="4">
         <v>0.45090000000000002</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="8">
-        <f>AVERAGE(L23:M23)</f>
+      <c r="I23" s="8">
+        <f>AVERAGE(J23:K23)</f>
         <v>0.60785</v>
       </c>
-      <c r="L23" s="4">
+      <c r="J23" s="4">
         <v>0.67120000000000002</v>
       </c>
-      <c r="M23" s="4">
+      <c r="K23" s="4">
         <v>0.54449999999999998</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="8">
-        <f>AVERAGE(Q23:R23)</f>
+      <c r="M23" s="8">
+        <f>AVERAGE(N23:O23)</f>
         <v>0.61559999999999993</v>
       </c>
+      <c r="N23" s="4">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0.5978</v>
+      </c>
+      <c r="P23" s="5"/>
       <c r="Q23" s="4">
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="R23" s="4">
-        <v>0.5978</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="4">
-        <f>AVERAGE(F23,K23,P23)</f>
+        <f>AVERAGE(E23,I23,M23)</f>
         <v>0.56674999999999998</v>
       </c>
-      <c r="V23" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X23" s="19">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="Z23" s="19">
-        <v>0.56899999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4" t="e">
-        <f>AVERAGE(G26:H26)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E26" s="4" t="e">
+        <f>AVERAGE(F26:G26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="I26" s="8" t="e">
+        <f>AVERAGE(J26:K26)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="8" t="e">
-        <f>AVERAGE(L26:M26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="8" t="e">
+        <f>AVERAGE(N26:O26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="8" t="e">
-        <f>AVERAGE(Q26:R26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="T26" s="4" t="e">
-        <f>AVERAGE(F26,K26,P26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V26" s="4" t="e">
-        <f>AVERAGE(O26,J26,E26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X26" s="4"/>
-      <c r="Z26" s="4"/>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="Q26" s="4" t="e">
+        <f>AVERAGE(E26,I26,M26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4" t="e">
-        <f>AVERAGE(G27:H27)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E27" s="4" t="e">
+        <f>AVERAGE(F27:G27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="I27" s="8" t="e">
+        <f>AVERAGE(J27:K27)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J27" s="4"/>
-      <c r="K27" s="8" t="e">
-        <f>AVERAGE(L27:M27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="8" t="e">
+        <f>AVERAGE(N27:O27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="8" t="e">
-        <f>AVERAGE(Q27:R27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="T27" s="4" t="e">
-        <f>AVERAGE(F27,K27,P27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="4" t="e">
-        <f t="shared" ref="V27:V30" si="3">AVERAGE(O27,J27,E27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X27" s="4"/>
-      <c r="Z27" s="4"/>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="Q27" s="4" t="e">
+        <f>AVERAGE(E27,I27,M27)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4" t="e">
-        <f>AVERAGE(G28:H28)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E28" s="4" t="e">
+        <f>AVERAGE(F28:G28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="I28" s="8" t="e">
+        <f>AVERAGE(J28:K28)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J28" s="4"/>
-      <c r="K28" s="8" t="e">
-        <f>AVERAGE(L28:M28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="8" t="e">
+        <f>AVERAGE(N28:O28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="8" t="e">
-        <f>AVERAGE(Q28:R28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="T28" s="4" t="e">
-        <f>AVERAGE(F28,K28,P28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X28" s="4"/>
-      <c r="Z28" s="4"/>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="Q28" s="4" t="e">
+        <f>AVERAGE(E28,I28,M28)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="4" t="e">
-        <f>AVERAGE(G29:H29)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E29" s="4" t="e">
+        <f>AVERAGE(F29:G29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="I29" s="8" t="e">
+        <f>AVERAGE(J29:K29)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J29" s="4"/>
-      <c r="K29" s="8" t="e">
-        <f>AVERAGE(L29:M29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="8" t="e">
+        <f>AVERAGE(N29:O29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="8" t="e">
-        <f>AVERAGE(Q29:R29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="T29" s="4" t="e">
-        <f>AVERAGE(F29,K29,P29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="Q29" s="4" t="e">
+        <f>AVERAGE(E29,I29,M29)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="4" t="e">
-        <f>AVERAGE(G30:H30)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E30" s="4" t="e">
+        <f>AVERAGE(F30:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="I30" s="8" t="e">
+        <f>AVERAGE(J30:K30)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J30" s="4"/>
-      <c r="K30" s="8" t="e">
-        <f>AVERAGE(L30:M30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="8" t="e">
+        <f>AVERAGE(N30:O30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="8" t="e">
-        <f>AVERAGE(Q30:R30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="T30" s="4" t="e">
-        <f>AVERAGE(F30,K30,P30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V30" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="Q30" s="4" t="e">
+        <f>AVERAGE(E30,I30,M30)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C26:C30"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C19:C23"/>
@@ -9575,24 +9266,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="J2" s="20" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="O2" s="23" t="s">
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="25"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="28"/>
       <c r="T2" s="1" t="s">
         <v>3</v>
       </c>
@@ -9645,7 +9336,7 @@
       </c>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -9702,7 +9393,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="26"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
@@ -9757,7 +9448,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="26"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9813,7 +9504,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="26"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
@@ -9868,7 +9559,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C9" s="26"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
@@ -9923,7 +9614,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -9945,7 +9636,7 @@
       <c r="J12" s="6">
         <v>0.57679999999999998</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f>AVERAGE(L12:M12)</f>
         <v>0.57814999999999994</v>
       </c>
@@ -9980,7 +9671,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="26"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
@@ -10000,7 +9691,7 @@
       <c r="J13" s="4">
         <v>0.52959999999999996</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f>AVERAGE(L13:M13)</f>
         <v>0.53320000000000001</v>
       </c>
@@ -10035,7 +9726,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C14" s="26"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
@@ -10055,7 +9746,7 @@
       <c r="J14" s="4">
         <v>0.51839999999999997</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f>AVERAGE(L14:M14)</f>
         <v>0.52124999999999999</v>
       </c>
@@ -10090,7 +9781,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C15" s="26"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
@@ -10123,7 +9814,7 @@
       <c r="O15" s="4">
         <v>0.4738</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <f>AVERAGE(Q15:R15)</f>
         <v>0.47789999999999999</v>
       </c>
@@ -10145,7 +9836,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
@@ -10165,7 +9856,7 @@
       <c r="J16" s="4">
         <v>0.58120000000000005</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f>AVERAGE(L16:M16)</f>
         <v>0.58255000000000001</v>
       </c>
@@ -10200,7 +9891,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -10235,7 +9926,7 @@
       <c r="O19" s="4">
         <v>0.59909999999999997</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <f>AVERAGE(Q19:R19)</f>
         <v>0.59904999999999997</v>
       </c>
@@ -10253,15 +9944,15 @@
         <f>AVERAGE(O19,J19,E19)</f>
         <v>0.54590000000000005</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>0.55300000000000005</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="18">
         <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C20" s="26"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
@@ -10294,7 +9985,7 @@
       <c r="O20" s="4">
         <v>0.59850000000000003</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <f>AVERAGE(Q20:R20)</f>
         <v>0.59739999999999993</v>
       </c>
@@ -10312,15 +10003,15 @@
         <f t="shared" ref="V20:V23" si="2">AVERAGE(O20,J20,E20)</f>
         <v>0.55169999999999997</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>0.56200000000000006</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="18">
         <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C21" s="26"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
@@ -10353,7 +10044,7 @@
       <c r="O21" s="4">
         <v>0.48870000000000002</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="13">
         <f>AVERAGE(Q21:R21)</f>
         <v>0.49209999999999998</v>
       </c>
@@ -10371,15 +10062,15 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="18">
         <v>0.56899999999999995</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="Z21" s="18">
         <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="22" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="3" t="s">
         <v>10</v>
       </c>
@@ -10412,7 +10103,7 @@
       <c r="O22" s="4">
         <v>0.60150000000000003</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <f>AVERAGE(Q22:R22)</f>
         <v>0.60065000000000002</v>
       </c>
@@ -10431,15 +10122,15 @@
         <f t="shared" si="2"/>
         <v>0.55236666666666667</v>
       </c>
-      <c r="X22" s="19">
+      <c r="X22" s="18">
         <v>0.55900000000000005</v>
       </c>
-      <c r="Z22" s="19">
+      <c r="Z22" s="18">
         <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C23" s="26"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
@@ -10472,7 +10163,7 @@
       <c r="O23" s="4">
         <v>0.61360000000000003</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <f>AVERAGE(Q23:R23)</f>
         <v>0.61280000000000001</v>
       </c>
@@ -10491,15 +10182,15 @@
         <f t="shared" si="2"/>
         <v>0.56106666666666671</v>
       </c>
-      <c r="X23" s="19">
+      <c r="X23" s="18">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z23" s="19">
+      <c r="Z23" s="18">
         <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -10550,7 +10241,7 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C27" s="26"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
@@ -10605,7 +10296,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C28" s="26"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -10660,7 +10351,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
@@ -10715,7 +10406,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C30" s="26"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
@@ -10770,21 +10461,21 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F53" s="26" t="s">
+      <c r="F53" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="K53" s="26" t="s">
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="K53" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="P53" s="27" t="s">
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="P53" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
       <c r="T53" s="1" t="s">
         <v>3</v>
       </c>
@@ -10819,7 +10510,7 @@
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -10862,7 +10553,7 @@
       </c>
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="26"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="3" t="s">
         <v>8</v>
       </c>
@@ -10903,7 +10594,7 @@
       </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="26"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
@@ -10944,7 +10635,7 @@
       </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="26"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="3" t="s">
         <v>10</v>
       </c>
@@ -10985,7 +10676,7 @@
       </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="26"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="3" t="s">
         <v>11</v>
       </c>
@@ -11026,7 +10717,7 @@
       </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -11069,7 +10760,7 @@
       </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
@@ -11110,7 +10801,7 @@
       </c>
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="26"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="3" t="s">
         <v>9</v>
       </c>
@@ -11151,7 +10842,7 @@
       </c>
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C66" s="26"/>
+      <c r="C66" s="29"/>
       <c r="D66" s="3" t="s">
         <v>10</v>
       </c>
@@ -11192,7 +10883,7 @@
       </c>
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C67" s="26"/>
+      <c r="C67" s="29"/>
       <c r="D67" s="3" t="s">
         <v>11</v>
       </c>
@@ -11233,7 +10924,7 @@
       </c>
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -11276,7 +10967,7 @@
       </c>
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="26"/>
+      <c r="C71" s="29"/>
       <c r="D71" s="3" t="s">
         <v>8</v>
       </c>
@@ -11317,7 +11008,7 @@
       </c>
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
+      <c r="C72" s="29"/>
       <c r="D72" s="3" t="s">
         <v>9</v>
       </c>
@@ -11358,7 +11049,7 @@
       </c>
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="26"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="3" t="s">
         <v>10</v>
       </c>
@@ -11399,7 +11090,7 @@
       </c>
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="26"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="3" t="s">
         <v>11</v>
       </c>
@@ -11441,7 +11132,7 @@
       </c>
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -11484,7 +11175,7 @@
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C78" s="26"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="3" t="s">
         <v>8</v>
       </c>
@@ -11525,7 +11216,7 @@
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C79" s="26"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="3" t="s">
         <v>9</v>
       </c>
@@ -11566,7 +11257,7 @@
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C80" s="26"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="3" t="s">
         <v>10</v>
       </c>
@@ -11607,7 +11298,7 @@
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
+      <c r="C81" s="29"/>
       <c r="D81" s="3" t="s">
         <v>11</v>
       </c>
@@ -11649,6 +11340,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C16"/>
     <mergeCell ref="C77:C81"/>
     <mergeCell ref="F53:H53"/>
     <mergeCell ref="K53:M53"/>
@@ -11656,13 +11354,6 @@
     <mergeCell ref="C56:C60"/>
     <mergeCell ref="C63:C67"/>
     <mergeCell ref="C70:C74"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="C12:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
